--- a/Zmays_B73/05_excel/dn15a.xlsx
+++ b/Zmays_B73/05_excel/dn15a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E4155B3B-446B-470B-A25B-3EDE3C3302FE/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/08_sra_list_x/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/691B756B-9AC8-40B5-97A6-1E2290D344E3/192.168.10.18/disk6/pzhou/projects/barn/Zmays_B73/05_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E42391-A20D-E74C-A359-B305C8F721B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C290B0F6-80D0-534C-8B83-9AD36460F79A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18720" yWindow="13180" windowWidth="17280" windowHeight="11560" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="16320" yWindow="5920" windowWidth="17280" windowHeight="15080" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>SampleID</t>
   </si>
@@ -139,16 +139,115 @@
   </si>
   <si>
     <t>W153R</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>s01</t>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
+  <si>
+    <t>s25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,11 +589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +601,7 @@
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,441 +618,607 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2">
         <v>250646395</v>
       </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3">
         <v>20733441</v>
       </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4">
         <v>15059855</v>
       </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5">
         <v>20111631</v>
       </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6">
         <v>23406554</v>
       </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
         <v>16675865</v>
       </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
         <v>12054914</v>
       </c>
-      <c r="H8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
         <v>16008049</v>
       </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10">
         <v>18645983</v>
       </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11">
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11">
         <v>120581006</v>
       </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12">
         <v>236515722</v>
       </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>200</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13">
         <v>19869632</v>
       </c>
-      <c r="H13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>200</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14">
         <v>13984393</v>
       </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15">
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15">
         <v>18755536</v>
       </c>
-      <c r="H15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16">
         <v>21809109</v>
       </c>
-      <c r="H16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17">
         <v>185921657</v>
       </c>
-      <c r="H17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18">
         <v>17454945</v>
       </c>
-      <c r="H18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19">
         <v>13440378</v>
       </c>
-      <c r="H19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20">
         <v>16854134</v>
       </c>
-      <c r="H20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21">
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21">
         <v>19614244</v>
       </c>
-      <c r="H21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22">
         <v>166877204</v>
       </c>
-      <c r="H22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23">
         <v>21459647</v>
       </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24">
         <v>15372194</v>
       </c>
-      <c r="H24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>34</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25">
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25">
         <v>20434636</v>
       </c>
-      <c r="H25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26">
         <v>23790880</v>
       </c>
-      <c r="H26">
-        <v>200</v>
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>